--- a/Datasets/SeperateCountryFiles/Réunion.xlsx
+++ b/Datasets/SeperateCountryFiles/Réunion.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,9 +49,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -348,759 +355,988 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No Of Sit_Rep</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CountryID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>WorldRegion</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RowNo.</t>
-        </is>
-      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>MasterSheet RowNo.</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>43903</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>2169</v>
       </c>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B3" t="n">
-        <v>228</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>43904</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="G3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>2353</v>
       </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B4" t="n">
-        <v>228</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="B4" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>43905</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>2451</v>
       </c>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B5" t="n">
-        <v>228</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="G5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>2603</v>
       </c>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B6" t="n">
-        <v>228</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>43907</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="2" t="n">
         <v>2763</v>
       </c>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B7" t="n">
-        <v>228</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="B7" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>43908</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="2" t="n">
         <v>2924</v>
       </c>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B8" t="n">
-        <v>228</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="B8" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>43909</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="G8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>3093</v>
       </c>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B9" t="n">
-        <v>228</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="B9" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="G9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>3270</v>
       </c>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B10" t="n">
-        <v>228</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="B10" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>43911</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="G10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>3453</v>
       </c>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B11" t="n">
-        <v>228</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="B11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>43912</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>3640</v>
       </c>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B12" t="n">
-        <v>228</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="B12" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>Under investigation</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
         <v>3831</v>
       </c>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B13" t="n">
-        <v>228</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="B13" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>43914</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="G13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Under investigation</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>4026</v>
       </c>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B14" t="n">
-        <v>228</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="B14" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>43915</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="G14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
         <v>4223</v>
       </c>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B15" t="n">
-        <v>228</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="B15" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="G15" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
         <v>4420</v>
       </c>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B16" t="n">
-        <v>228</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="B16" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="G16" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
         <v>4618</v>
       </c>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B17" t="n">
-        <v>228</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="B17" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="2" t="n">
         <v>4816</v>
       </c>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B18" t="n">
-        <v>228</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="B18" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="G18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
         <v>5019</v>
       </c>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B19" t="n">
-        <v>228</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="B19" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="G19" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5223</v>
-      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>5222</v>
+      </c>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>RÉUNION</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>43921</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>Local transmission</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>5425</v>
+      </c>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datasets/SeperateCountryFiles/Réunion.xlsx
+++ b/Datasets/SeperateCountryFiles/Réunion.xlsx
@@ -393,55 +393,59 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>WorldRegion</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+          <t>Continent</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Sub-Region</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>MasterSheet RowNo.</t>
         </is>
       </c>
-      <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
     </row>
@@ -450,45 +454,47 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>43903</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>3</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
       </c>
       <c r="G2" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>2169</v>
       </c>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
     </row>
@@ -497,45 +503,47 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>43904</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>2353</v>
       </c>
-      <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
     </row>
@@ -544,45 +552,47 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>43905</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>2451</v>
       </c>
-      <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
     </row>
@@ -591,45 +601,47 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
         <v>2603</v>
       </c>
-      <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
     </row>
@@ -638,45 +650,47 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>43907</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>2763</v>
       </c>
-      <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
     </row>
@@ -685,45 +699,47 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>43908</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>2924</v>
       </c>
-      <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
     </row>
@@ -732,45 +748,47 @@
         <v>59</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>43909</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>3093</v>
       </c>
-      <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
     </row>
@@ -779,45 +797,47 @@
         <v>60</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
         <v>3270</v>
       </c>
-      <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
     </row>
@@ -826,45 +846,47 @@
         <v>61</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>43911</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
         <v>3453</v>
       </c>
-      <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
@@ -873,45 +895,47 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>43912</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>3640</v>
       </c>
-      <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
     </row>
@@ -920,45 +944,47 @@
         <v>63</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Under investigation</t>
         </is>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>3831</v>
       </c>
-      <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
     </row>
@@ -967,45 +993,47 @@
         <v>64</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>43914</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="H13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>Under investigation</t>
         </is>
       </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>4026</v>
       </c>
-      <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
     </row>
@@ -1014,45 +1042,47 @@
         <v>65</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>43915</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
         <v>4223</v>
       </c>
-      <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
     </row>
@@ -1061,45 +1091,47 @@
         <v>66</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>4420</v>
       </c>
-      <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
     </row>
@@ -1108,45 +1140,47 @@
         <v>67</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
         <v>4618</v>
       </c>
-      <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
     </row>
@@ -1155,45 +1189,47 @@
         <v>68</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="L17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="M17" s="2" t="n">
         <v>4816</v>
       </c>
-      <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
     </row>
@@ -1202,45 +1238,47 @@
         <v>69</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="H18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
         <v>5019</v>
       </c>
-      <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
@@ -1249,45 +1287,47 @@
         <v>70</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="H19" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>5222</v>
       </c>
-      <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
     </row>
@@ -1296,45 +1336,47 @@
         <v>71</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>RÉUNION</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+        <v>224</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Southern Africa</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>43921</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Réunion</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="L20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="M20" s="2" t="n">
         <v>5425</v>
       </c>
-      <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="n"/>
     </row>

--- a/Datasets/SeperateCountryFiles/Réunion.xlsx
+++ b/Datasets/SeperateCountryFiles/Réunion.xlsx
@@ -364,19 +364,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="27" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
